--- a/biology/Botanique/Lonicera_nitida/Lonicera_nitida.xlsx
+++ b/biology/Botanique/Lonicera_nitida/Lonicera_nitida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera nitida, le Chèvrefeuille arbustif, Chèvrefeuille luisant ou Chèvrefeuille nain (en anglais Wilson's Honeysuckle), est un arbrisseau de la famille des caprifoliacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chamaecerasus nitida hort.
 Lonicera ligustrina var. yunnanensis</t>
@@ -542,11 +556,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Arbrisseau vivace au feuillage persistant, il peut atteindre 3 m de hauteur ; il convient parfaitement à l'édification de massifs, ses fleurs parfumées sont appréciées.
-Caractéristiques
-Organes reproducteurs
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbrisseau vivace au feuillage persistant, il peut atteindre 3 m de hauteur ; il convient parfaitement à l'édification de massifs, ses fleurs parfumées sont appréciées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lonicera_nitida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lonicera_nitida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : blanc-verdâtre
 Période de floraison : mai
 Inflorescence : cyme multipare
@@ -559,31 +610,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Lonicera_nitida</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lonicera_nitida</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire du sud-ouest de la Chine, et parfois naturalisé en Europe à partir des jardins.
 </t>
